--- a/data/Inventory_Data_Raw_Calculations.xlsx
+++ b/data/Inventory_Data_Raw_Calculations.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021A8EFF-69C7-46DE-AC0D-96CF1E24BD95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FCBB4A-69C8-4A76-B3C9-D86094626379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11717" windowHeight="3454" tabRatio="850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11715" windowHeight="3450" tabRatio="850" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta_Data" sheetId="4" r:id="rId1"/>
@@ -3481,6 +3481,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -3490,60 +3544,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3571,6 +3571,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -3580,12 +3634,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3600,54 +3648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3959,14 +3959,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="159.15234375" customWidth="1"/>
-    <col min="3" max="3" width="10.53515625" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="159.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>762</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>461</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="56" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" s="56" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>255</v>
       </c>
@@ -3990,13 +3990,13 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
         <v>668</v>
       </c>
       <c r="B4" s="74"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>445</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>490</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>492</v>
       </c>
@@ -4020,13 +4020,13 @@
         <v>493</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>494</v>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="93"/>
     </row>
   </sheetData>
@@ -4043,37 +4043,37 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.15234375" customWidth="1"/>
-    <col min="2" max="2" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.69140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.53515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.53515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M3" s="257" t="s">
         <v>262</v>
       </c>
       <c r="N3" s="257"/>
       <c r="O3" s="257"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>256</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>269</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>272</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>274</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>277</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>279</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>284</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>286</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>288</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>291</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>293</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>274</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>296</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>298</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>300</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>302</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>304</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>306</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>308</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>310</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>311</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>312</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>314</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>316</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>318</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>320</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>321</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>322</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>326</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>328</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>330</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>332</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>334</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>336</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>337</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>339</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>340</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>332</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>342</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>344</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>349</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>350</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>351</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>353</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>354</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>356</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>358</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>359</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>360</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>362</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>363</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>364</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>366</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>368</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>369</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>274</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>371</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>328</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>374</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>375</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>377</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>378</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>380</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>382</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>383</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>385</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>387</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>388</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>390</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>391</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>392</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>393</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>394</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>395</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>397</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>399</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>400</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>402</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>371</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>405</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>406</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>408</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>410</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>412</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>413</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>415</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>417</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>419</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>420</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>422</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>424</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>425</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>426</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>328</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>428</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>430</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>431</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>432</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>402</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>433</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>274</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>405</v>
       </c>
@@ -6932,184 +6932,184 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="98" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="97" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>595</v>
       </c>
@@ -7135,17 +7135,17 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.53515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.84375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>687</v>
       </c>
@@ -7160,7 +7160,7 @@
       <c r="F1" s="258"/>
       <c r="G1" s="258"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="68" t="s">
         <v>689</v>
@@ -7181,7 +7181,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>645</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>0.52606501547987616</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
         <v>646</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>0.11479669762641898</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
         <v>647</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>0.16428276573787409</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="73" t="s">
         <v>648</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>0.13038183694530445</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
         <v>688</v>
       </c>
@@ -7343,18 +7343,18 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.69140625" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.53515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100.3046875" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>468</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>472</v>
       </c>
@@ -7402,7 +7402,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>456</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>455</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>448</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>495</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>496</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>457</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>473</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="74" t="s">
         <v>475</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>449</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>454</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="74" t="s">
         <v>500</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="89"/>
       <c r="E16" s="89"/>
     </row>
@@ -7716,16 +7716,16 @@
       <selection activeCell="I2" sqref="I2:M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.3828125" customWidth="1"/>
-    <col min="4" max="5" width="27.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>501</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>504</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
         <v>505</v>
       </c>
@@ -7781,7 +7781,7 @@
       <c r="E3" s="260"/>
       <c r="F3" s="259"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="95" t="s">
         <v>506</v>
       </c>
@@ -7797,7 +7797,7 @@
       <c r="E4" s="260"/>
       <c r="F4" s="259"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>507</v>
       </c>
@@ -7813,7 +7813,7 @@
       <c r="E5" s="260"/>
       <c r="F5" s="259"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="s">
         <v>543</v>
       </c>
@@ -7829,7 +7829,7 @@
       <c r="E6" s="260"/>
       <c r="F6" s="259"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>508</v>
       </c>
@@ -7845,7 +7845,7 @@
       <c r="E7" s="260"/>
       <c r="F7" s="259"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>509</v>
       </c>
@@ -7861,7 +7861,7 @@
       <c r="E8" s="260"/>
       <c r="F8" s="259"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>510</v>
       </c>
@@ -7877,7 +7877,7 @@
       <c r="E9" s="260"/>
       <c r="F9" s="259"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
         <v>511</v>
       </c>
@@ -7893,7 +7893,7 @@
       <c r="E10" s="260"/>
       <c r="F10" s="259"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>512</v>
       </c>
@@ -7909,7 +7909,7 @@
       <c r="E11" s="260"/>
       <c r="F11" s="259"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>513</v>
       </c>
@@ -7925,7 +7925,7 @@
       <c r="E12" s="260"/>
       <c r="F12" s="259"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="95" t="s">
         <v>514</v>
       </c>
@@ -7941,7 +7941,7 @@
       <c r="E13" s="260"/>
       <c r="F13" s="259"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="95" t="s">
         <v>515</v>
       </c>
@@ -7957,7 +7957,7 @@
       <c r="E14" s="260"/>
       <c r="F14" s="259"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="95" t="s">
         <v>516</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="E15" s="260"/>
       <c r="F15" s="259"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="95" t="s">
         <v>517</v>
       </c>
@@ -7989,7 +7989,7 @@
       <c r="E16" s="260"/>
       <c r="F16" s="259"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="95" t="s">
         <v>518</v>
       </c>
@@ -8005,7 +8005,7 @@
       <c r="E17" s="260"/>
       <c r="F17" s="259"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="95" t="s">
         <v>519</v>
       </c>
@@ -8021,7 +8021,7 @@
       <c r="E18" s="260"/>
       <c r="F18" s="259"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="95" t="s">
         <v>520</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="E19" s="260"/>
       <c r="F19" s="259"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="95" t="s">
         <v>521</v>
       </c>
@@ -8053,7 +8053,7 @@
       <c r="E20" s="260"/>
       <c r="F20" s="259"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="95" t="s">
         <v>522</v>
       </c>
@@ -8069,7 +8069,7 @@
       <c r="E21" s="260"/>
       <c r="F21" s="259"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="95" t="s">
         <v>523</v>
       </c>
@@ -8085,7 +8085,7 @@
       <c r="E22" s="260"/>
       <c r="F22" s="259"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="95" t="s">
         <v>524</v>
       </c>
@@ -8101,7 +8101,7 @@
       <c r="E23" s="260"/>
       <c r="F23" s="259"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="95" t="s">
         <v>525</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="E24" s="260"/>
       <c r="F24" s="259"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="95" t="s">
         <v>526</v>
       </c>
@@ -8133,7 +8133,7 @@
       <c r="E25" s="260"/>
       <c r="F25" s="259"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="95" t="s">
         <v>527</v>
       </c>
@@ -8149,7 +8149,7 @@
       <c r="E26" s="260"/>
       <c r="F26" s="259"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="95" t="s">
         <v>528</v>
       </c>
@@ -8165,7 +8165,7 @@
       <c r="E27" s="260"/>
       <c r="F27" s="259"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="95" t="s">
         <v>529</v>
       </c>
@@ -8181,7 +8181,7 @@
       <c r="E28" s="260"/>
       <c r="F28" s="259"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="95" t="s">
         <v>530</v>
       </c>
@@ -8197,7 +8197,7 @@
       <c r="E29" s="260"/>
       <c r="F29" s="259"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="95" t="s">
         <v>531</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="E30" s="260"/>
       <c r="F30" s="259"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="95" t="s">
         <v>532</v>
       </c>
@@ -8229,7 +8229,7 @@
       <c r="E31" s="260"/>
       <c r="F31" s="259"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="95" t="s">
         <v>533</v>
       </c>
@@ -8245,7 +8245,7 @@
       <c r="E32" s="260"/>
       <c r="F32" s="259"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="95" t="s">
         <v>534</v>
       </c>
@@ -8261,7 +8261,7 @@
       <c r="E33" s="260"/>
       <c r="F33" s="259"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="95" t="s">
         <v>535</v>
       </c>
@@ -8277,7 +8277,7 @@
       <c r="E34" s="260"/>
       <c r="F34" s="259"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="95" t="s">
         <v>536</v>
       </c>
@@ -8293,7 +8293,7 @@
       <c r="E35" s="260"/>
       <c r="F35" s="259"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="95" t="s">
         <v>537</v>
       </c>
@@ -8309,7 +8309,7 @@
       <c r="E36" s="260"/>
       <c r="F36" s="259"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="95" t="s">
         <v>538</v>
       </c>
@@ -8325,7 +8325,7 @@
       <c r="E37" s="260"/>
       <c r="F37" s="259"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="95" t="s">
         <v>539</v>
       </c>
@@ -8341,7 +8341,7 @@
       <c r="E38" s="260"/>
       <c r="F38" s="259"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="95" t="s">
         <v>540</v>
       </c>
@@ -8357,7 +8357,7 @@
       <c r="E39" s="260"/>
       <c r="F39" s="259"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="95" t="s">
         <v>541</v>
       </c>
@@ -8394,33 +8394,33 @@
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.3046875" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="10.3828125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3828125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="261" t="s">
         <v>206</v>
       </c>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="G5" s="262"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>151</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="116" t="s">
         <v>205</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>36999999.999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="111" t="s">
         <v>152</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>59729999.999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="111" t="s">
         <v>153</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>16720000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="111" t="s">
         <v>154</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>121240000.00000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="107" t="s">
         <v>155</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>13719999.999999991</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="107" t="s">
         <v>156</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>4240000.0000000037</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="107" t="s">
         <v>207</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>21280000.000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>157</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>52740000.000000015</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="117" t="s">
         <v>158</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>109119999.99999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="117" t="s">
         <v>159</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>236060000.00000003</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="117" t="s">
         <v>160</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>134680000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="117" t="s">
         <v>162</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>25840000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="117" t="s">
         <v>161</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>342760000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>165</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>32250000.000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>163</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>73320000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>164</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>1131580000.0000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>208</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>604800000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>209</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>208320000.00000003</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
         <v>166</v>
       </c>
@@ -8921,23 +8921,23 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.53515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>388573000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>4484414000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>930851000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>704173000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>1992179000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>3723608000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>37</v>
       </c>
@@ -9172,7 +9172,7 @@
         <v>8500190000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>2189075000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>2162398000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>340814000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>930851000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>427283000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>468091000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>443364000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>1173133000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>1058784000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>1242819000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>7279093000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>2363353000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>73</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>704173000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>641478000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>688563000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>79</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>1313758000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>7223745000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>83</v>
       </c>
@@ -9612,7 +9612,7 @@
         <v>856380000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>3764365000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>87</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>539465000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>462322000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>456351000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -9712,7 +9712,7 @@
         <v>6367365000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>22</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>388573000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>98</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>1409966000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>36956000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>2923000</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>1130613000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>106</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>1255612000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>108</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>47630000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>110</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>2050976000</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>2050976000</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>114</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>1452714000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>116</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>1452611000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>1452714000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>2603000000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>39</v>
       </c>
@@ -10012,26 +10012,26 @@
         <v>8500190000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>123</v>
       </c>
       <c r="B56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -10052,18 +10052,18 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.69140625" customWidth="1"/>
-    <col min="4" max="4" width="12.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.15234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3828125" customWidth="1"/>
-    <col min="7" max="7" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>441</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>170</v>
       </c>
@@ -10112,7 +10112,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
@@ -10134,7 +10134,7 @@
       <c r="F3" s="196"/>
       <c r="G3" s="193"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>135</v>
       </c>
@@ -10156,7 +10156,7 @@
       <c r="F4" s="196"/>
       <c r="G4" s="193"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>135</v>
       </c>
@@ -10178,7 +10178,7 @@
       <c r="F5" s="196"/>
       <c r="G5" s="193"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>135</v>
       </c>
@@ -10200,7 +10200,7 @@
       <c r="F6" s="196"/>
       <c r="G6" s="193"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>135</v>
       </c>
@@ -10222,7 +10222,7 @@
       <c r="F7" s="196"/>
       <c r="G7" s="193"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="66" t="s">
         <v>174</v>
       </c>
@@ -10244,7 +10244,7 @@
       <c r="F8" s="196"/>
       <c r="G8" s="193"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="66" t="s">
         <v>174</v>
       </c>
@@ -10266,7 +10266,7 @@
       <c r="F9" s="196"/>
       <c r="G9" s="193"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>174</v>
       </c>
@@ -10288,7 +10288,7 @@
       <c r="F10" s="196"/>
       <c r="G10" s="193"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
         <v>193</v>
       </c>
@@ -10310,7 +10310,7 @@
       <c r="F11" s="196"/>
       <c r="G11" s="193"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>193</v>
       </c>
@@ -10332,7 +10332,7 @@
       <c r="F12" s="196"/>
       <c r="G12" s="193"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
         <v>193</v>
       </c>
@@ -10354,11 +10354,11 @@
       <c r="F13" s="197"/>
       <c r="G13" s="194"/>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" s="92"/>
       <c r="D17" s="92"/>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" s="92"/>
     </row>
   </sheetData>
@@ -10378,26 +10378,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32693A9E-0695-49CA-86CD-A8D26E122BB7}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.53515625" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.69140625" style="27" customWidth="1"/>
-    <col min="4" max="6" width="12.84375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.84375" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.69140625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="117.84375" customWidth="1"/>
-    <col min="11" max="11" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="27" customWidth="1"/>
+    <col min="4" max="6" width="12.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="27" customWidth="1"/>
+    <col min="9" max="9" width="117.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>440</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="198" t="s">
         <v>248</v>
       </c>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="K2" s="98"/>
     </row>
-    <row r="3" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="199"/>
       <c r="B3" s="73" t="s">
         <v>133</v>
@@ -10484,7 +10484,7 @@
       </c>
       <c r="K3" s="98"/>
     </row>
-    <row r="4" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="199"/>
       <c r="B4" s="73" t="s">
         <v>132</v>
@@ -10514,7 +10514,7 @@
       </c>
       <c r="K4" s="98"/>
     </row>
-    <row r="5" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="199"/>
       <c r="B5" s="73" t="s">
         <v>752</v>
@@ -10544,7 +10544,7 @@
       </c>
       <c r="K5" s="93"/>
     </row>
-    <row r="6" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="199"/>
       <c r="B6" s="73" t="s">
         <v>438</v>
@@ -10576,7 +10576,7 @@
       </c>
       <c r="K6" s="98"/>
     </row>
-    <row r="7" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="199"/>
       <c r="B7" s="73" t="s">
         <v>439</v>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="K7" s="98"/>
     </row>
-    <row r="8" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="200"/>
       <c r="B8" s="73" t="s">
         <v>621</v>
@@ -10639,7 +10639,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="198" t="s">
         <v>447</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="199"/>
       <c r="B10" s="73" t="s">
         <v>464</v>
@@ -10703,7 +10703,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="200"/>
       <c r="B11" s="73" t="s">
         <v>463</v>
@@ -10731,7 +10731,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="56" customFormat="1" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" s="56" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
         <v>249</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="29"/>
       <c r="C13" s="72"/>
@@ -10775,93 +10775,93 @@
       <c r="H13" s="64"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="83"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="97"/>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E17" s="188"/>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
       <c r="I18" s="132"/>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E19" s="137"/>
       <c r="I19" s="132"/>
       <c r="R19" s="94"/>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
       <c r="F20" s="90"/>
       <c r="G20" s="90"/>
       <c r="I20" s="132"/>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D21" s="90"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="90"/>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D22" s="90"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="90"/>
       <c r="I22" s="133"/>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D23" s="138"/>
       <c r="E23" s="90"/>
       <c r="F23" s="90"/>
       <c r="G23" s="90"/>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C24" s="83"/>
       <c r="D24" s="138"/>
       <c r="E24" s="90"/>
       <c r="F24" s="90"/>
       <c r="G24" s="90"/>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D25" s="90"/>
       <c r="E25" s="90"/>
       <c r="F25" s="90"/>
       <c r="G25" s="90"/>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D26" s="90"/>
       <c r="E26" s="90"/>
       <c r="F26" s="90"/>
       <c r="G26" s="90"/>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D27" s="90"/>
       <c r="E27" s="90"/>
       <c r="F27" s="90"/>
       <c r="G27" s="90"/>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D28" s="90"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
       <c r="G28" s="90"/>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D29" s="90"/>
       <c r="E29" s="90"/>
       <c r="F29" s="90"/>
       <c r="G29" s="90"/>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D30" s="90"/>
       <c r="E30" s="90"/>
       <c r="F30" s="90"/>
       <c r="G30" s="90"/>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D31" s="90"/>
       <c r="E31" s="90"/>
       <c r="F31" s="90"/>
@@ -10885,61 +10885,61 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.53515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53515625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.69140625" customWidth="1"/>
-    <col min="7" max="7" width="13.3828125" customWidth="1"/>
-    <col min="8" max="8" width="12.3046875" customWidth="1"/>
-    <col min="9" max="9" width="11.53515625" customWidth="1"/>
-    <col min="10" max="10" width="13.69140625" customWidth="1"/>
-    <col min="11" max="11" width="13.3046875" customWidth="1"/>
-    <col min="12" max="12" width="11.53515625" customWidth="1"/>
-    <col min="13" max="13" width="109.3828125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="109.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="123" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="218" t="s">
+    <row r="2" spans="1:13" s="123" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="209" t="s">
         <v>440</v>
       </c>
-      <c r="B2" s="218" t="s">
+      <c r="B2" s="209" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="205" t="s">
+      <c r="C2" s="207" t="s">
         <v>658</v>
       </c>
-      <c r="D2" s="207" t="s">
+      <c r="D2" s="204" t="s">
         <v>717</v>
       </c>
-      <c r="E2" s="208"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="204" t="s">
         <v>659</v>
       </c>
-      <c r="H2" s="208"/>
-      <c r="I2" s="209"/>
-      <c r="J2" s="207" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="206"/>
+      <c r="J2" s="204" t="s">
         <v>671</v>
       </c>
-      <c r="K2" s="208"/>
-      <c r="L2" s="209"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="211" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="123" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="219"/>
-      <c r="B3" s="219"/>
-      <c r="C3" s="206"/>
+    <row r="3" spans="1:13" s="123" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="210"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="208"/>
       <c r="D3" s="124" t="s">
         <v>618</v>
       </c>
@@ -10967,9 +10967,9 @@
       <c r="L3" s="124" t="s">
         <v>620</v>
       </c>
-      <c r="M3" s="221"/>
-    </row>
-    <row r="4" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M3" s="212"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="198" t="s">
         <v>248</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="199"/>
       <c r="B5" s="73" t="s">
         <v>133</v>
@@ -11061,7 +11061,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="199"/>
       <c r="B6" s="73" t="s">
         <v>132</v>
@@ -11106,7 +11106,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="199"/>
       <c r="B7" s="73" t="s">
         <v>752</v>
@@ -11151,7 +11151,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="199"/>
       <c r="B8" s="73" t="s">
         <v>438</v>
@@ -11192,11 +11192,11 @@
         <f t="shared" si="2"/>
         <v>1.36986301369863E-4</v>
       </c>
-      <c r="M8" s="215" t="s">
+      <c r="M8" s="201" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="199"/>
       <c r="B9" s="73" t="s">
         <v>439</v>
@@ -11237,9 +11237,9 @@
         <f t="shared" si="2"/>
         <v>1.36986301369863E-4</v>
       </c>
-      <c r="M9" s="216"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M9" s="202"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="200"/>
       <c r="B10" s="73" t="s">
         <v>621</v>
@@ -11280,9 +11280,9 @@
         <f t="shared" si="2"/>
         <v>1.36986301369863E-4</v>
       </c>
-      <c r="M10" s="217"/>
-    </row>
-    <row r="11" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="M10" s="203"/>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="198" t="s">
         <v>447</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="199"/>
       <c r="B12" s="73" t="s">
         <v>464</v>
@@ -11364,7 +11364,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="200"/>
       <c r="B13" s="73" t="s">
         <v>463</v>
@@ -11403,46 +11403,46 @@
         <v>611</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="29"/>
     </row>
-    <row r="15" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="210" t="s">
+    <row r="16" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="214" t="s">
         <v>440</v>
       </c>
-      <c r="B16" s="211"/>
-      <c r="C16" s="205" t="s">
+      <c r="B16" s="215"/>
+      <c r="C16" s="207" t="s">
         <v>674</v>
       </c>
-      <c r="D16" s="204" t="s">
+      <c r="D16" s="213" t="s">
         <v>658</v>
       </c>
-      <c r="E16" s="204"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="207" t="s">
+      <c r="E16" s="213"/>
+      <c r="F16" s="213"/>
+      <c r="G16" s="204" t="s">
         <v>683</v>
       </c>
-      <c r="H16" s="208"/>
-      <c r="I16" s="209"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="206"/>
       <c r="J16" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="K16" s="214" t="s">
+      <c r="K16" s="218" t="s">
         <v>600</v>
       </c>
-      <c r="L16" s="214"/>
-      <c r="M16" s="214"/>
-    </row>
-    <row r="17" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A17" s="212"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="206"/>
+      <c r="L16" s="218"/>
+      <c r="M16" s="218"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="216"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="208"/>
       <c r="D17" s="124" t="s">
         <v>618</v>
       </c>
@@ -11462,15 +11462,15 @@
         <v>620</v>
       </c>
       <c r="J17" s="150"/>
-      <c r="K17" s="214"/>
-      <c r="L17" s="214"/>
-      <c r="M17" s="214"/>
-    </row>
-    <row r="18" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="202" t="s">
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+    </row>
+    <row r="18" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="220" t="s">
         <v>672</v>
       </c>
-      <c r="B18" s="203"/>
+      <c r="B18" s="221"/>
       <c r="C18" s="95">
         <f>47556.816*1000</f>
         <v>47556816</v>
@@ -11499,17 +11499,17 @@
       <c r="J18" s="147" t="s">
         <v>673</v>
       </c>
-      <c r="K18" s="201" t="s">
+      <c r="K18" s="219" t="s">
         <v>677</v>
       </c>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-    </row>
-    <row r="19" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="202" t="s">
+      <c r="L18" s="219"/>
+      <c r="M18" s="219"/>
+    </row>
+    <row r="19" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="220" t="s">
         <v>685</v>
       </c>
-      <c r="B19" s="203"/>
+      <c r="B19" s="221"/>
       <c r="C19" s="95">
         <f>1787*1000000/10</f>
         <v>178700000</v>
@@ -11538,17 +11538,17 @@
       <c r="J19" s="148" t="s">
         <v>673</v>
       </c>
-      <c r="K19" s="201" t="s">
+      <c r="K19" s="219" t="s">
         <v>686</v>
       </c>
-      <c r="L19" s="201"/>
-      <c r="M19" s="201"/>
-    </row>
-    <row r="20" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="202" t="s">
+      <c r="L19" s="219"/>
+      <c r="M19" s="219"/>
+    </row>
+    <row r="20" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="220" t="s">
         <v>670</v>
       </c>
-      <c r="B20" s="203"/>
+      <c r="B20" s="221"/>
       <c r="C20" s="95">
         <f>C18/42</f>
         <v>1132305.142857143</v>
@@ -11577,18 +11577,18 @@
       <c r="J20" s="147" t="s">
         <v>681</v>
       </c>
-      <c r="K20" s="201" t="s">
+      <c r="K20" s="219" t="s">
         <v>682</v>
       </c>
-      <c r="L20" s="201"/>
-      <c r="M20" s="201"/>
-    </row>
-    <row r="22" spans="1:13" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="L20" s="219"/>
+      <c r="M20" s="219"/>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="154" t="s">
         <v>699</v>
@@ -11600,7 +11600,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="67" t="s">
         <v>696</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="155" t="s">
         <v>131</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>8.3001328021248334E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="155" t="s">
         <v>133</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>1.8254837531945966E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="155" t="s">
         <v>132</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>8.5616438356164384E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="155" t="s">
         <v>443</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>5.7077625570776254E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="155" t="s">
         <v>438</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>4.9504950495049508E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="155" t="s">
         <v>439</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>4.9504950495049508E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="155" t="s">
         <v>621</v>
       </c>
@@ -11733,14 +11733,14 @@
         <v>4.9504950495049508E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="156" t="s">
         <v>697</v>
       </c>
       <c r="C32" s="154"/>
       <c r="D32" s="154"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="155" t="s">
         <v>250</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>1.1415525114155251E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="67" t="s">
         <v>693</v>
       </c>
@@ -11765,7 +11765,7 @@
       <c r="C34" s="154"/>
       <c r="D34" s="154"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="155" t="s">
         <v>672</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>9.1209850402761793E-7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="155" t="s">
         <v>685</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>3.4273110855389337E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="155" t="s">
         <v>670</v>
       </c>
@@ -11818,6 +11818,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="K16:M17"/>
     <mergeCell ref="M8:M10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A4:A10"/>
@@ -11828,17 +11839,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="K16:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="K19:M19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11853,21 +11853,21 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3046875" customWidth="1"/>
-    <col min="4" max="4" width="15.69140625" customWidth="1"/>
-    <col min="5" max="12" width="15.3046875" customWidth="1"/>
-    <col min="13" max="13" width="69.69140625" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="69.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="218" t="s">
+    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="209" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="218" t="s">
+      <c r="B1" s="209" t="s">
         <v>653</v>
       </c>
       <c r="C1" s="222" t="s">
@@ -11876,29 +11876,29 @@
       <c r="D1" s="222" t="s">
         <v>604</v>
       </c>
-      <c r="E1" s="207" t="s">
+      <c r="E1" s="204" t="s">
         <v>606</v>
       </c>
-      <c r="F1" s="208"/>
-      <c r="G1" s="209"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="206"/>
       <c r="H1" s="124" t="s">
         <v>608</v>
       </c>
       <c r="I1" s="124" t="s">
         <v>609</v>
       </c>
-      <c r="J1" s="207" t="s">
+      <c r="J1" s="204" t="s">
         <v>655</v>
       </c>
-      <c r="K1" s="208"/>
-      <c r="L1" s="209"/>
-      <c r="M1" s="214" t="s">
+      <c r="K1" s="205"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="218" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="219"/>
-      <c r="B2" s="219"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="210"/>
+      <c r="B2" s="210"/>
       <c r="C2" s="223"/>
       <c r="D2" s="223"/>
       <c r="E2" s="124" t="s">
@@ -11921,9 +11921,9 @@
       <c r="L2" s="124" t="s">
         <v>620</v>
       </c>
-      <c r="M2" s="214"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M2" s="218"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>22</v>
       </c>
@@ -11969,11 +11969,11 @@
         <f>Electricity_Intensity!F$11*0.5*$D3</f>
         <v>3.9554252751981623E-3</v>
       </c>
-      <c r="M3" s="201" t="s">
+      <c r="M3" s="219" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
         <v>25</v>
       </c>
@@ -12019,9 +12019,9 @@
         <f>Electricity_Intensity!F$11*0.5*$D4</f>
         <v>3.4857498485822047E-3</v>
       </c>
-      <c r="M4" s="201"/>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M4" s="219"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
         <v>28</v>
       </c>
@@ -12068,9 +12068,9 @@
         <f>Electricity_Intensity!F$11*0.5*$D5</f>
         <v>2.229013446183049E-3</v>
       </c>
-      <c r="M5" s="201"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M5" s="219"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="142" t="s">
         <v>602</v>
       </c>
@@ -12087,9 +12087,9 @@
       <c r="J6" s="189"/>
       <c r="K6" s="189"/>
       <c r="L6" s="189"/>
-      <c r="M6" s="201"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M6" s="219"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="142" t="s">
         <v>155</v>
       </c>
@@ -12106,9 +12106,9 @@
       <c r="J7" s="189"/>
       <c r="K7" s="189"/>
       <c r="L7" s="189"/>
-      <c r="M7" s="201"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M7" s="219"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
         <v>31</v>
       </c>
@@ -12154,9 +12154,9 @@
         <f>Electricity_Intensity!F$11*0.5*$D8</f>
         <v>2.7251525229481848E-4</v>
       </c>
-      <c r="M8" s="201"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M8" s="219"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
         <v>34</v>
       </c>
@@ -12202,12 +12202,12 @@
         <f>Electricity_Intensity!F$11*0.5*$D9</f>
         <v>2.4448355767776316E-4</v>
       </c>
-      <c r="M9" s="201"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M9" s="219"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="141"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E12" s="92"/>
       <c r="F12" s="92"/>
       <c r="G12" s="92"/>
@@ -12217,7 +12217,7 @@
       <c r="K12" s="92"/>
       <c r="L12" s="92"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D13" s="94"/>
       <c r="E13" s="87"/>
       <c r="F13" s="87"/>
@@ -12228,7 +12228,7 @@
       <c r="K13" s="87"/>
       <c r="L13" s="87"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" s="88"/>
       <c r="F14" s="88"/>
       <c r="G14" s="88"/>
@@ -12241,12 +12241,12 @@
         <v>8.1836215931339168E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15" s="87"/>
       <c r="K15" s="87"/>
       <c r="L15" s="87"/>
     </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H17" s="89"/>
       <c r="I17" s="89"/>
       <c r="J17" s="89"/>
@@ -12273,19 +12273,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE580A-22AC-452B-A361-5C2AC0EF09A1}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.69140625" customWidth="1"/>
-    <col min="2" max="2" width="14.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3828125" customWidth="1"/>
-    <col min="4" max="4" width="101.3828125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="101.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>441</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="56" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>170</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="56" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="56" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
         <v>135</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
         <v>174</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="56" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" s="56" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="73" t="s">
         <v>193</v>
       </c>
@@ -12375,141 +12375,144 @@
         <v>631</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="70"/>
       <c r="B7" s="134"/>
       <c r="C7" s="99"/>
       <c r="D7" s="93"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="98"/>
       <c r="C8" s="96"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="87"/>
       <c r="B11" s="88"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="87"/>
       <c r="B12" s="87"/>
       <c r="C12" s="97"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="87"/>
       <c r="B13" s="87"/>
       <c r="C13" s="100"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="87"/>
       <c r="B14" s="87"/>
       <c r="C14" s="98"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="87"/>
       <c r="B15" s="87"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="87"/>
       <c r="B16" s="87"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="89"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="87"/>
       <c r="B18" s="87"/>
-      <c r="C18" s="98"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="89"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="87"/>
       <c r="B19" s="87"/>
-      <c r="C19" s="98"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C19" s="89"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="87"/>
       <c r="B20" s="87"/>
       <c r="C20" s="87"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="89"/>
       <c r="B25" s="89"/>
       <c r="C25" s="89"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="87"/>
       <c r="B26" s="87"/>
       <c r="C26" s="87"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="87"/>
       <c r="B28" s="87"/>
       <c r="C28" s="87"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="87"/>
       <c r="B33" s="87"/>
       <c r="C33" s="87"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="87"/>
       <c r="B35" s="87"/>
       <c r="C35" s="87"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="87"/>
       <c r="B40" s="87"/>
       <c r="C40" s="87"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="87"/>
       <c r="B43" s="87"/>
       <c r="C43" s="87"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="87"/>
       <c r="B49" s="87"/>
       <c r="C49" s="87"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="87"/>
       <c r="B52" s="87"/>
       <c r="C52" s="87"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="87"/>
       <c r="B54" s="87"/>
       <c r="C54" s="87"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="87"/>
       <c r="B55" s="87"/>
       <c r="C55" s="87"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="87"/>
       <c r="B56" s="87"/>
       <c r="C56" s="87"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="87"/>
       <c r="B57" s="87"/>
       <c r="C57" s="87"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="87"/>
       <c r="B60" s="87"/>
       <c r="C60" s="87"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="87"/>
       <c r="B62" s="87"/>
       <c r="C62" s="87"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="88"/>
       <c r="B68" s="88"/>
       <c r="C68" s="88"/>
@@ -12531,13 +12534,13 @@
       <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.69140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="22" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="224" t="s">
         <v>451</v>
       </c>
@@ -12566,7 +12569,7 @@
       <c r="U1" s="226"/>
       <c r="V1" s="227"/>
     </row>
-    <row r="2" spans="1:23" ht="193.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" ht="193.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="228" t="s">
         <v>651</v>
       </c>
@@ -12595,7 +12598,7 @@
       <c r="U2" s="229"/>
       <c r="V2" s="230"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>441</v>
       </c>
@@ -12663,7 +12666,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>633</v>
       </c>
@@ -12716,7 +12719,7 @@
       <c r="U4" s="136"/>
       <c r="V4" s="136"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>634</v>
       </c>
@@ -12769,7 +12772,7 @@
       <c r="U5" s="136"/>
       <c r="V5" s="136"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>635</v>
       </c>
@@ -12800,7 +12803,7 @@
       <c r="U6" s="136"/>
       <c r="V6" s="136"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>636</v>
       </c>
@@ -12841,7 +12844,7 @@
       <c r="U7" s="135"/>
       <c r="V7" s="135"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>637</v>
       </c>
@@ -12892,7 +12895,7 @@
       <c r="U8" s="135"/>
       <c r="V8" s="135"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="79" t="s">
         <v>638</v>
       </c>
@@ -12922,7 +12925,7 @@
       </c>
       <c r="W9" s="93"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="66" t="s">
         <v>639</v>
       </c>
@@ -12950,7 +12953,7 @@
       <c r="U10" s="135"/>
       <c r="V10" s="135"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
         <v>640</v>
       </c>
@@ -12988,7 +12991,7 @@
       <c r="U11" s="135"/>
       <c r="V11" s="135"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>641</v>
       </c>
@@ -13026,7 +13029,7 @@
       <c r="U12" s="135"/>
       <c r="V12" s="135"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
         <v>642</v>
       </c>
@@ -13055,7 +13058,7 @@
       <c r="U13" s="135"/>
       <c r="V13" s="135"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
         <v>643</v>
       </c>
@@ -13086,7 +13089,7 @@
       <c r="U14" s="135"/>
       <c r="V14" s="135"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
         <v>644</v>
       </c>
@@ -13118,32 +13121,32 @@
       <c r="U15" s="135"/>
       <c r="V15" s="135"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I16" s="93"/>
       <c r="L16" s="93"/>
     </row>
-    <row r="17" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I17" s="93"/>
     </row>
-    <row r="18" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
       <c r="I18" s="89"/>
       <c r="J18" s="89"/>
       <c r="K18" s="89"/>
       <c r="L18" s="89"/>
     </row>
-    <row r="20" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G20" s="89"/>
       <c r="J20" s="89"/>
     </row>
-    <row r="21" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G21" s="89"/>
       <c r="I21" s="98"/>
     </row>
-    <row r="22" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G22" s="89"/>
       <c r="I22" s="98"/>
     </row>
-    <row r="23" spans="7:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G23" s="89"/>
     </row>
   </sheetData>
@@ -13169,19 +13172,19 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" customWidth="1"/>
-    <col min="2" max="2" width="24.15234375" customWidth="1"/>
-    <col min="3" max="3" width="21.3828125" customWidth="1"/>
-    <col min="4" max="4" width="7.3046875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3046875" style="27" customWidth="1"/>
-    <col min="6" max="6" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="139.15234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3046875" style="27"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="139.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -13204,7 +13207,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
@@ -13229,7 +13232,7 @@
       </c>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>2</v>
       </c>
@@ -13254,7 +13257,7 @@
       </c>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>2</v>
       </c>
@@ -13279,7 +13282,7 @@
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
         <v>2</v>
       </c>
@@ -13303,7 +13306,7 @@
       </c>
       <c r="H5" s="51"/>
     </row>
-    <row r="6" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>2</v>
       </c>
@@ -13327,7 +13330,7 @@
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>135</v>
       </c>
@@ -13352,7 +13355,7 @@
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>135</v>
       </c>
@@ -13376,7 +13379,7 @@
       </c>
       <c r="H8" s="51"/>
     </row>
-    <row r="9" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>135</v>
       </c>
@@ -13401,7 +13404,7 @@
       </c>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>135</v>
       </c>
@@ -13426,7 +13429,7 @@
       </c>
       <c r="H10" s="51"/>
     </row>
-    <row r="11" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>135</v>
       </c>
@@ -13450,7 +13453,7 @@
       </c>
       <c r="H11" s="51"/>
     </row>
-    <row r="12" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>135</v>
       </c>
@@ -13472,7 +13475,7 @@
       <c r="G12" s="26"/>
       <c r="H12" s="51"/>
     </row>
-    <row r="13" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>135</v>
       </c>
@@ -13496,7 +13499,7 @@
       </c>
       <c r="H13" s="51"/>
     </row>
-    <row r="14" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>135</v>
       </c>
@@ -13519,7 +13522,7 @@
       <c r="G14" s="26"/>
       <c r="H14" s="51"/>
     </row>
-    <row r="15" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>135</v>
       </c>
@@ -13544,7 +13547,7 @@
       </c>
       <c r="H15" s="51"/>
     </row>
-    <row r="16" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>135</v>
       </c>
@@ -13568,7 +13571,7 @@
       </c>
       <c r="H16" s="51"/>
     </row>
-    <row r="17" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>135</v>
       </c>
@@ -13593,7 +13596,7 @@
       </c>
       <c r="H17" s="51"/>
     </row>
-    <row r="18" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>135</v>
       </c>
@@ -13617,7 +13620,7 @@
       </c>
       <c r="H18" s="51"/>
     </row>
-    <row r="19" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>135</v>
       </c>
@@ -13640,7 +13643,7 @@
       <c r="G19" s="49"/>
       <c r="H19" s="51"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>135</v>
       </c>
@@ -13664,7 +13667,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>135</v>
       </c>
@@ -13686,7 +13689,7 @@
       </c>
       <c r="G21" s="26"/>
     </row>
-    <row r="22" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>135</v>
       </c>
@@ -13710,7 +13713,7 @@
       </c>
       <c r="H22" s="51"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>135</v>
       </c>
@@ -13734,7 +13737,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>135</v>
       </c>
@@ -13757,7 +13760,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>135</v>
       </c>
@@ -13778,7 +13781,7 @@
       </c>
       <c r="G25" s="26"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>135</v>
       </c>
@@ -13801,7 +13804,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>135</v>
       </c>
@@ -13823,7 +13826,7 @@
       </c>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>135</v>
       </c>
@@ -13847,7 +13850,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>135</v>
       </c>
@@ -13869,7 +13872,7 @@
       </c>
       <c r="G29" s="26"/>
     </row>
-    <row r="30" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>135</v>
       </c>
@@ -13893,7 +13896,7 @@
       </c>
       <c r="H30" s="51"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>135</v>
       </c>
@@ -13917,7 +13920,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>135</v>
       </c>
@@ -13940,7 +13943,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>135</v>
       </c>
@@ -13961,7 +13964,7 @@
       </c>
       <c r="G33" s="26"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>135</v>
       </c>
@@ -13984,7 +13987,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>135</v>
       </c>
@@ -14006,7 +14009,7 @@
       </c>
       <c r="G35" s="26"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
         <v>135</v>
       </c>
@@ -14030,7 +14033,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>174</v>
       </c>
@@ -14054,7 +14057,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>174</v>
       </c>
@@ -14078,7 +14081,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="49" t="s">
         <v>174</v>
       </c>
@@ -14102,7 +14105,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
         <v>174</v>
       </c>
@@ -14126,7 +14129,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>174</v>
       </c>
@@ -14150,7 +14153,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
         <v>174</v>
       </c>
@@ -14174,7 +14177,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
         <v>174</v>
       </c>
@@ -14198,7 +14201,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>174</v>
       </c>
@@ -14222,7 +14225,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
         <v>174</v>
       </c>
@@ -14246,7 +14249,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
         <v>174</v>
       </c>
@@ -14270,7 +14273,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>193</v>
       </c>
@@ -14294,7 +14297,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>193</v>
       </c>
@@ -14318,7 +14321,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>193</v>
       </c>
@@ -14340,7 +14343,7 @@
       </c>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>193</v>
       </c>
@@ -14364,7 +14367,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
         <v>193</v>
       </c>
@@ -14388,7 +14391,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>193</v>
       </c>
@@ -14412,7 +14415,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>193</v>
       </c>
@@ -14436,7 +14439,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>170</v>
       </c>
@@ -14458,7 +14461,7 @@
       </c>
       <c r="G54" s="26"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>170</v>
       </c>
@@ -14479,7 +14482,7 @@
       </c>
       <c r="G55" s="26"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>171</v>
       </c>
@@ -14501,7 +14504,7 @@
       </c>
       <c r="G56" s="26"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
         <v>171</v>
       </c>
@@ -14522,7 +14525,7 @@
       </c>
       <c r="G57" s="26"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
         <v>171</v>
       </c>
@@ -14543,13 +14546,13 @@
       </c>
       <c r="G58" s="26"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
         <v>220</v>
       </c>
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>221</v>
       </c>
@@ -14557,7 +14560,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>222</v>
       </c>
@@ -14565,7 +14568,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>224</v>
       </c>
@@ -14573,7 +14576,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -14581,7 +14584,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>228</v>
       </c>
@@ -14589,7 +14592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>229</v>
       </c>
@@ -14597,7 +14600,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>225</v>
       </c>
@@ -14605,7 +14608,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>230</v>
       </c>
@@ -14613,7 +14616,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>231</v>
       </c>
@@ -14621,7 +14624,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -14629,7 +14632,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>233</v>
       </c>
@@ -14637,7 +14640,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>234</v>
       </c>
@@ -14645,7 +14648,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>235</v>
       </c>
@@ -14653,7 +14656,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>236</v>
       </c>
@@ -14661,7 +14664,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>237</v>
       </c>
@@ -14669,7 +14672,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>238</v>
       </c>
@@ -14677,7 +14680,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -14685,7 +14688,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>240</v>
       </c>
@@ -14693,7 +14696,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>242</v>
       </c>
@@ -14701,7 +14704,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>243</v>
       </c>
@@ -14709,7 +14712,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>458</v>
       </c>
@@ -14717,7 +14720,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>466</v>
       </c>
@@ -14760,23 +14763,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D873C9D-FF20-4F7D-BB48-616E72B56F9C}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.84375" customWidth="1"/>
-    <col min="2" max="2" width="32.3046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.84375" customWidth="1"/>
-    <col min="6" max="6" width="23.15234375" customWidth="1"/>
-    <col min="7" max="7" width="109.53515625" customWidth="1"/>
-    <col min="8" max="8" width="100.15234375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="109.5703125" customWidth="1"/>
+    <col min="8" max="8" width="100.140625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="166" t="s">
         <v>710</v>
       </c>
@@ -14799,8 +14802,8 @@
         <v>491</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="250" t="s">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="240" t="s">
         <v>131</v>
       </c>
       <c r="B2" s="164" t="s">
@@ -14812,7 +14815,7 @@
       <c r="D2" s="185">
         <v>4.5</v>
       </c>
-      <c r="E2" s="241" t="s">
+      <c r="E2" s="231" t="s">
         <v>730</v>
       </c>
       <c r="F2" s="163">
@@ -14823,8 +14826,8 @@
         <v>747</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="251"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="241"/>
       <c r="B3" s="73" t="s">
         <v>725</v>
       </c>
@@ -14834,17 +14837,17 @@
       <c r="D3" s="161">
         <v>3.34</v>
       </c>
-      <c r="E3" s="242"/>
+      <c r="E3" s="232"/>
       <c r="F3" s="163">
         <f t="shared" ref="F3:F5" si="0">D3/(ROUND((5*365)+(30*365/60),0))</f>
         <v>1.6633466135458166E-3</v>
       </c>
-      <c r="G3" s="253" t="s">
+      <c r="G3" s="243" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="251"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="241"/>
       <c r="B4" s="73" t="s">
         <v>723</v>
       </c>
@@ -14854,15 +14857,15 @@
       <c r="D4" s="161">
         <v>2.5190000000000001</v>
       </c>
-      <c r="E4" s="242"/>
+      <c r="E4" s="232"/>
       <c r="F4" s="163">
         <f t="shared" si="0"/>
         <v>1.2544820717131475E-3</v>
       </c>
-      <c r="G4" s="254"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="251"/>
+      <c r="G4" s="244"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="241"/>
       <c r="B5" s="73" t="s">
         <v>724</v>
       </c>
@@ -14872,15 +14875,15 @@
       <c r="D5" s="161">
         <v>4.1609999999999996</v>
       </c>
-      <c r="E5" s="242"/>
+      <c r="E5" s="232"/>
       <c r="F5" s="163">
         <f t="shared" si="0"/>
         <v>2.0722111553784857E-3</v>
       </c>
-      <c r="G5" s="255"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="251"/>
+      <c r="G5" s="245"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="241"/>
       <c r="B6" s="164" t="s">
         <v>701</v>
       </c>
@@ -14890,15 +14893,15 @@
       <c r="D6" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="242"/>
+      <c r="E6" s="232"/>
       <c r="F6" s="165">
         <f>6/1000</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G6" s="176"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="251"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="241"/>
       <c r="B7" s="173" t="s">
         <v>714</v>
       </c>
@@ -14908,14 +14911,14 @@
       <c r="D7" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="E7" s="242"/>
+      <c r="E7" s="232"/>
       <c r="F7" s="175">
         <v>2E-3</v>
       </c>
       <c r="G7" s="174"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="251"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="241"/>
       <c r="B8" s="173" t="s">
         <v>715</v>
       </c>
@@ -14925,14 +14928,14 @@
       <c r="D8" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="E8" s="242"/>
+      <c r="E8" s="232"/>
       <c r="F8" s="175">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G8" s="174"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="251"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="241"/>
       <c r="B9" s="167" t="s">
         <v>716</v>
       </c>
@@ -14943,17 +14946,17 @@
         <f>D3*(1-0.03)^(2020-2016)</f>
         <v>2.9568779853999998</v>
       </c>
-      <c r="E9" s="242"/>
+      <c r="E9" s="232"/>
       <c r="F9" s="168">
         <f t="shared" ref="F9:F11" si="1">D9/(ROUND((5*365)+(30*365/60),0))</f>
         <v>1.4725487975099602E-3</v>
       </c>
-      <c r="G9" s="234" t="s">
+      <c r="G9" s="246" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="251"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="241"/>
       <c r="B10" s="167" t="s">
         <v>705</v>
       </c>
@@ -14964,15 +14967,15 @@
         <f t="shared" ref="D10:D11" si="2">D4*(1-0.03)^(2020-2016)</f>
         <v>2.23005258839</v>
       </c>
-      <c r="E10" s="242"/>
+      <c r="E10" s="232"/>
       <c r="F10" s="168">
         <f t="shared" si="1"/>
         <v>1.1105839583615538E-3</v>
       </c>
-      <c r="G10" s="256"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="251"/>
+      <c r="G10" s="247"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="241"/>
       <c r="B11" s="167" t="s">
         <v>706</v>
       </c>
@@ -14983,15 +14986,15 @@
         <f t="shared" si="2"/>
         <v>3.6837033824099992</v>
       </c>
-      <c r="E11" s="242"/>
+      <c r="E11" s="232"/>
       <c r="F11" s="168">
         <f t="shared" si="1"/>
         <v>1.8345136366583661E-3</v>
       </c>
-      <c r="G11" s="256"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="252"/>
+      <c r="G11" s="247"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="242"/>
       <c r="B12" s="170" t="s">
         <v>721</v>
       </c>
@@ -15002,15 +15005,15 @@
         <f>D3*(1-0.03)^(2050-2016)</f>
         <v>1.1857289729650515</v>
       </c>
-      <c r="E12" s="243"/>
+      <c r="E12" s="233"/>
       <c r="F12" s="172">
         <f>D12/(ROUND((5*365)+(30*365/60),0))</f>
         <v>5.9050247657622089E-4</v>
       </c>
-      <c r="G12" s="235"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="250" t="s">
+      <c r="G12" s="248"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="240" t="s">
         <v>133</v>
       </c>
       <c r="B13" s="73" t="s">
@@ -15022,19 +15025,19 @@
       <c r="D13" s="161">
         <v>6.1</v>
       </c>
-      <c r="E13" s="241" t="s">
+      <c r="E13" s="231" t="s">
         <v>733</v>
       </c>
       <c r="F13" s="163">
         <f>D13/(ROUND((2*365)+(30*365/60),0))</f>
         <v>6.6812705366922232E-3</v>
       </c>
-      <c r="G13" s="244" t="s">
+      <c r="G13" s="234" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="251"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="241"/>
       <c r="B14" s="73" t="s">
         <v>719</v>
       </c>
@@ -15044,15 +15047,15 @@
       <c r="D14" s="161">
         <v>4.2</v>
       </c>
-      <c r="E14" s="242"/>
+      <c r="E14" s="232"/>
       <c r="F14" s="163">
         <f>D14/(ROUND((2*365)+(30*365/60),0))</f>
         <v>4.600219058050384E-3</v>
       </c>
-      <c r="G14" s="245"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="251"/>
+      <c r="G14" s="235"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="241"/>
       <c r="B15" s="73" t="s">
         <v>720</v>
       </c>
@@ -15062,15 +15065,15 @@
       <c r="D15" s="161">
         <v>7.2</v>
       </c>
-      <c r="E15" s="242"/>
+      <c r="E15" s="232"/>
       <c r="F15" s="163">
         <f>D15/(ROUND((2*365)+(30*365/60),0))</f>
         <v>7.8860898138006577E-3</v>
       </c>
-      <c r="G15" s="246"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="251"/>
+      <c r="G15" s="236"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="241"/>
       <c r="B16" s="73" t="s">
         <v>703</v>
       </c>
@@ -15080,7 +15083,7 @@
       <c r="D16" s="161">
         <v>12.9</v>
       </c>
-      <c r="E16" s="242"/>
+      <c r="E16" s="232"/>
       <c r="F16" s="163">
         <f>D16/(ROUND((2*365)+(30*365/60),0))</f>
         <v>1.4129244249726178E-2</v>
@@ -15089,8 +15092,8 @@
         <v>749</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="251"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="241"/>
       <c r="B17" s="164" t="s">
         <v>701</v>
       </c>
@@ -15100,15 +15103,15 @@
       <c r="D17" s="160" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="242"/>
+      <c r="E17" s="232"/>
       <c r="F17" s="165">
         <f>7/1000</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G17" s="178"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="251"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="241"/>
       <c r="B18" s="167" t="s">
         <v>716</v>
       </c>
@@ -15119,17 +15122,17 @@
         <f>D13*(1-0.03)^(2020-2013)</f>
         <v>4.9286953531648923</v>
       </c>
-      <c r="E18" s="242"/>
+      <c r="E18" s="232"/>
       <c r="F18" s="168">
         <f>D18/(ROUND((2*365)+(30*365/60),0))</f>
         <v>5.398351974988929E-3</v>
       </c>
-      <c r="G18" s="234" t="s">
+      <c r="G18" s="246" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="251"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="241"/>
       <c r="B19" s="167" t="s">
         <v>705</v>
       </c>
@@ -15140,15 +15143,15 @@
         <f t="shared" ref="D19:D20" si="3">D14*(1-0.03)^(2020-2013)</f>
         <v>3.3935279480807456</v>
       </c>
-      <c r="E19" s="242"/>
+      <c r="E19" s="232"/>
       <c r="F19" s="168">
         <f t="shared" ref="F19:F21" si="4">D19/(ROUND((2*365)+(30*365/60),0))</f>
         <v>3.7168980811399187E-3</v>
       </c>
-      <c r="G19" s="256"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="251"/>
+      <c r="G19" s="247"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="241"/>
       <c r="B20" s="167" t="s">
         <v>706</v>
       </c>
@@ -15159,15 +15162,15 @@
         <f t="shared" si="3"/>
         <v>5.8174764824241354</v>
       </c>
-      <c r="E20" s="242"/>
+      <c r="E20" s="232"/>
       <c r="F20" s="168">
         <f t="shared" si="4"/>
         <v>6.371825281954146E-3</v>
       </c>
-      <c r="G20" s="256"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="252"/>
+      <c r="G20" s="247"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="242"/>
       <c r="B21" s="170" t="s">
         <v>721</v>
       </c>
@@ -15178,15 +15181,15 @@
         <f>D13*(1-0.03)^(2050-2013)</f>
         <v>1.9764416753149365</v>
       </c>
-      <c r="E21" s="243"/>
+      <c r="E21" s="233"/>
       <c r="F21" s="172">
         <f t="shared" si="4"/>
         <v>2.1647773004544761E-3</v>
       </c>
-      <c r="G21" s="235"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="238" t="s">
+      <c r="G21" s="248"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="254" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="73" t="s">
@@ -15199,19 +15202,19 @@
         <f>AVERAGE(46,70)</f>
         <v>58</v>
       </c>
-      <c r="E22" s="247" t="s">
+      <c r="E22" s="237" t="s">
         <v>735</v>
       </c>
       <c r="F22" s="163">
         <f>D22/(ROUND((4*365)+(0*365/60),0))</f>
         <v>3.9726027397260277E-2</v>
       </c>
-      <c r="G22" s="234" t="s">
+      <c r="G22" s="246" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="239"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="255"/>
       <c r="B23" s="73" t="s">
         <v>707</v>
       </c>
@@ -15222,15 +15225,15 @@
         <f>AVERAGE(39,59)</f>
         <v>49</v>
       </c>
-      <c r="E23" s="248"/>
+      <c r="E23" s="238"/>
       <c r="F23" s="163">
         <f>D23/(ROUND((4*365)+(0*365/60),0))</f>
         <v>3.3561643835616439E-2</v>
       </c>
-      <c r="G23" s="235"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="239"/>
+      <c r="G23" s="248"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="255"/>
       <c r="B24" s="73" t="s">
         <v>703</v>
       </c>
@@ -15240,7 +15243,7 @@
       <c r="D24" s="127">
         <v>41.8</v>
       </c>
-      <c r="E24" s="248"/>
+      <c r="E24" s="238"/>
       <c r="F24" s="163">
         <f>D24/(ROUND((4*365)+(0*365/60),0))</f>
         <v>2.8630136986301367E-2</v>
@@ -15249,8 +15252,8 @@
         <v>728</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="239"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="255"/>
       <c r="B25" s="73" t="s">
         <v>708</v>
       </c>
@@ -15260,7 +15263,7 @@
       <c r="D25" s="127">
         <v>42</v>
       </c>
-      <c r="E25" s="248"/>
+      <c r="E25" s="238"/>
       <c r="F25" s="163">
         <f>D25/(ROUND((4*365)+(0*365/60),0))</f>
         <v>2.8767123287671233E-2</v>
@@ -15269,8 +15272,8 @@
         <v>757</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="239"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="255"/>
       <c r="B26" s="73" t="s">
         <v>714</v>
       </c>
@@ -15280,15 +15283,15 @@
       <c r="D26" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="E26" s="248"/>
+      <c r="E26" s="238"/>
       <c r="F26" s="163">
         <f>20/1000</f>
         <v>0.02</v>
       </c>
       <c r="G26" s="179"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="239"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="255"/>
       <c r="B27" s="73" t="s">
         <v>715</v>
       </c>
@@ -15298,15 +15301,15 @@
       <c r="D27" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="E27" s="248"/>
+      <c r="E27" s="238"/>
       <c r="F27" s="163">
         <f>100/1000</f>
         <v>0.1</v>
       </c>
       <c r="G27" s="179"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="239"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="255"/>
       <c r="B28" s="164" t="s">
         <v>701</v>
       </c>
@@ -15316,15 +15319,15 @@
       <c r="D28" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="E28" s="248"/>
+      <c r="E28" s="238"/>
       <c r="F28" s="165">
         <f>32/1000</f>
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="G28" s="179"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="239"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="255"/>
       <c r="B29" s="183" t="s">
         <v>716</v>
       </c>
@@ -15335,17 +15338,17 @@
         <f>D23*(1-0.04)^(2020-2012)</f>
         <v>35.348089370207845</v>
       </c>
-      <c r="E29" s="248"/>
+      <c r="E29" s="238"/>
       <c r="F29" s="168">
         <f>D29/(ROUND((4*365)+(0*365/60),0))</f>
         <v>2.4211020116580717E-2</v>
       </c>
-      <c r="G29" s="234" t="s">
+      <c r="G29" s="246" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="240"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="256"/>
       <c r="B30" s="170" t="s">
         <v>721</v>
       </c>
@@ -15356,15 +15359,15 @@
         <f>D24*(1-0.04)^(2050-2012)</f>
         <v>8.8610081760116994</v>
       </c>
-      <c r="E30" s="249"/>
+      <c r="E30" s="239"/>
       <c r="F30" s="172">
         <f>D30/(ROUND((4*365)+(0*365/60),0))</f>
         <v>6.0691836821997937E-3</v>
       </c>
-      <c r="G30" s="235"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="237" t="s">
+      <c r="G30" s="248"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="253" t="s">
         <v>753</v>
       </c>
       <c r="B31" s="73" t="s">
@@ -15377,19 +15380,19 @@
         <f>AVERAGE(149+70,231+70)</f>
         <v>260</v>
       </c>
-      <c r="E31" s="236" t="s">
+      <c r="E31" s="252" t="s">
         <v>738</v>
       </c>
       <c r="F31" s="163">
         <f>D31/(ROUND((4*365)+(48*365/60),0))</f>
         <v>0.14840182648401826</v>
       </c>
-      <c r="G31" s="234" t="s">
+      <c r="G31" s="246" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="237"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="253"/>
       <c r="B32" s="73" t="s">
         <v>707</v>
       </c>
@@ -15400,15 +15403,15 @@
         <f>AVERAGE(137+70,213+70)</f>
         <v>245</v>
       </c>
-      <c r="E32" s="236"/>
+      <c r="E32" s="252"/>
       <c r="F32" s="163">
         <f>D32/(ROUND((4*365)+(48*365/60),0))</f>
         <v>0.13984018264840184</v>
       </c>
-      <c r="G32" s="235"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="237"/>
+      <c r="G32" s="248"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="253"/>
       <c r="B33" s="73" t="s">
         <v>708</v>
       </c>
@@ -15419,7 +15422,7 @@
         <f>246+80</f>
         <v>326</v>
       </c>
-      <c r="E33" s="236"/>
+      <c r="E33" s="252"/>
       <c r="F33" s="163">
         <f>D33/(ROUND((4*365)+(48*365/60),0))</f>
         <v>0.1860730593607306</v>
@@ -15428,8 +15431,8 @@
         <v>755</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="237"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="253"/>
       <c r="B34" s="73" t="s">
         <v>703</v>
       </c>
@@ -15439,7 +15442,7 @@
       <c r="D34" s="91">
         <v>233</v>
       </c>
-      <c r="E34" s="236"/>
+      <c r="E34" s="252"/>
       <c r="F34" s="163">
         <f>D34/(ROUND((4*365)+(48*365/60),0))</f>
         <v>0.13299086757990869</v>
@@ -15448,8 +15451,8 @@
         <v>728</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="237"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="253"/>
       <c r="B35" s="73" t="s">
         <v>702</v>
       </c>
@@ -15459,17 +15462,17 @@
       <c r="D35" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="E35" s="236"/>
+      <c r="E35" s="252"/>
       <c r="F35" s="163">
         <f>(100+30)/1000</f>
         <v>0.13</v>
       </c>
-      <c r="G35" s="231" t="s">
+      <c r="G35" s="249" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="237"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="253"/>
       <c r="B36" s="73" t="s">
         <v>702</v>
       </c>
@@ -15479,15 +15482,15 @@
       <c r="D36" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="E36" s="236"/>
+      <c r="E36" s="252"/>
       <c r="F36" s="163">
         <f>(60+30)/1000</f>
         <v>0.09</v>
       </c>
-      <c r="G36" s="232"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="237"/>
+      <c r="G36" s="250"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="253"/>
       <c r="B37" s="73" t="s">
         <v>702</v>
       </c>
@@ -15497,15 +15500,15 @@
       <c r="D37" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="E37" s="236"/>
+      <c r="E37" s="252"/>
       <c r="F37" s="163">
         <f>(300+30)/1000</f>
         <v>0.33</v>
       </c>
-      <c r="G37" s="233"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="237"/>
+      <c r="G37" s="251"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="253"/>
       <c r="B38" s="183" t="s">
         <v>716</v>
       </c>
@@ -15516,17 +15519,17 @@
         <f>D32*(1-0.03)^(2020-2012)</f>
         <v>192.01712306223553</v>
       </c>
-      <c r="E38" s="236"/>
+      <c r="E38" s="252"/>
       <c r="F38" s="168">
         <f>D38/(ROUND((4*365)+(48*365/60),0))</f>
         <v>0.10959881453323946</v>
       </c>
-      <c r="G38" s="234" t="s">
+      <c r="G38" s="246" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="237"/>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="253"/>
       <c r="B39" s="170" t="s">
         <v>721</v>
       </c>
@@ -15537,18 +15540,26 @@
         <f>D32*(1-0.03)^(2050-2012)</f>
         <v>77.000223629277812</v>
       </c>
-      <c r="E39" s="236"/>
+      <c r="E39" s="252"/>
       <c r="F39" s="172">
         <f>D39/(ROUND((4*365)+(48*365/60),0))</f>
         <v>4.394989933177957E-2</v>
       </c>
-      <c r="G39" s="235"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G39" s="248"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E40" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="E31:E39"/>
+    <mergeCell ref="A31:A39"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G31:G32"/>
     <mergeCell ref="E2:E12"/>
     <mergeCell ref="E13:E21"/>
     <mergeCell ref="G13:G15"/>
@@ -15558,14 +15569,6 @@
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="G9:G12"/>
     <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="E31:E39"/>
-    <mergeCell ref="A31:A39"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="G31:G32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
